--- a/Деревянный дом.xlsx
+++ b/Деревянный дом.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Щитовая автоматика" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Наименование</t>
   </si>
@@ -144,6 +144,51 @@
   </si>
   <si>
     <t>Металлорукав с протяжкой</t>
+  </si>
+  <si>
+    <t>Розетка + вилка электроплиты</t>
+  </si>
+  <si>
+    <t>Хомут металл</t>
+  </si>
+  <si>
+    <t>Скоба металл</t>
+  </si>
+  <si>
+    <t>ВВГнг 2х1,5</t>
+  </si>
+  <si>
+    <t>Провод 4мм синий</t>
+  </si>
+  <si>
+    <t>Провод 4мм белый</t>
+  </si>
+  <si>
+    <t>ПУГвнг</t>
+  </si>
+  <si>
+    <t>Пув</t>
+  </si>
+  <si>
+    <t>Провод 6мм для заземления</t>
+  </si>
+  <si>
+    <t>лучше жесткий</t>
+  </si>
+  <si>
+    <t>13-26</t>
+  </si>
+  <si>
+    <t>25-26</t>
+  </si>
+  <si>
+    <t>25мм</t>
+  </si>
+  <si>
+    <t>Саморез по дереву</t>
+  </si>
+  <si>
+    <t>3,5х51</t>
   </si>
 </sst>
 </file>
@@ -210,8 +255,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E14" totalsRowCount="1">
-  <autoFilter ref="A1:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E16" totalsRowCount="1">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Наименование"/>
     <tableColumn id="2" name="Количество"/>
@@ -226,22 +271,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E15" totalsRowCount="1">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Наименование"/>
     <tableColumn id="2" name="Ссылка"/>
     <tableColumn id="3" name="Количество"/>
     <tableColumn id="4" name="Цена"/>
-    <tableColumn id="5" name="Стоимость"/>
+    <tableColumn id="5" name="Стоимость" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Таблица2[Стоимость])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Наименование"/>
     <tableColumn id="2" name="Ссылка"/>
@@ -516,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,9 +809,45 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>71</v>
+      </c>
       <c r="E14">
+        <f>MMULT(Таблица1[[#This Row],[Цена]],Таблица1[[#This Row],[Количество]])</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <f>MMULT(Таблица1[[#This Row],[Цена]],Таблица1[[#This Row],[Количество]])</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
         <f>SUM(Таблица1[Итоговая])</f>
-        <v>49136</v>
+        <v>49580</v>
       </c>
     </row>
   </sheetData>
@@ -781,20 +864,21 @@
     <hyperlink ref="C12" r:id="rId10"/>
     <hyperlink ref="C11" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13" display="ПУвГнг"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,47 +932,47 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -896,7 +980,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -904,18 +988,32 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>SUM(Таблица2[Стоимость])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -928,15 +1026,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -964,26 +1062,168 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>131</v>
+      </c>
+      <c r="E6">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2822</v>
+      </c>
+      <c r="E7">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>420</v>
+      </c>
+      <c r="E10">
+        <f>MMULT(Таблица3[[#This Row],[Количество]],Таблица3[[#This Row],[Цена]])</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>6571</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>